--- a/meta/4-1-2-a.xlsx
+++ b/meta/4-1-2-a.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\413\Метаданные для показателей ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D6E4B1-4380-4C2D-ACD3-833EC91AD729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -125,9 +124,6 @@
   </si>
   <si>
     <t>Цель 4 «Обеспечение всеохватного и справедливого качественного образования и поощрение возможности обучения на протяжении всей жизни для всех»</t>
-  </si>
-  <si>
-    <t>4.2 К 2030 году обеспечить всем девочкам и мальчикам доступ к качественным системам развития, ухода и дошкольного обучения детей младшего возраста, с тем чтобы они были готовы к получению начального образования</t>
   </si>
   <si>
     <t xml:space="preserve">Детализация показателей осуществляется по территории </t>
@@ -265,11 +261,14 @@
   <si>
     <t xml:space="preserve">ЦУР 4.1.2.а. «Уровень завершения начального образования» </t>
   </si>
+  <si>
+    <t>4.1 К 2030 году обеспечить, чтобы все девочки и мальчики завершали получение бесплатного, равноправного и качественного начального и среднего образования, позволяющего добиться востребованных и эффективных результатов обучения</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,9 +463,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Гиперссылка 2" xfId="3" xr:uid="{8DE734EE-04FE-4D1D-BE59-935679C14728}"/>
+    <cellStyle name="Гиперссылка 2" xfId="3"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2" xr:uid="{2C35D97A-A1A7-472F-BEA4-9F1D02CA9EE4}"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -743,14 +742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -787,7 +786,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,7 +846,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -855,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -863,7 +862,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -885,7 +884,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -899,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -936,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -954,7 +953,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,7 +962,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId2"/>
